--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D924BA62-0D46-47E3-ADE8-848C82BE901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636535C-1C7E-46EB-8B60-66DA1EBCFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="2850" yWindow="2093" windowWidth="21503" windowHeight="12975" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Tom</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F4111D6-9AB0-4662-90A1-B73A15D4FE18}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F4111D6-9AB0-4662-90A1-B73A15D4FE18}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Naam</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>AI</t>
-  </si>
-  <si>
-    <t>Spots somda</t>
-  </si>
-  <si>
-    <t>Spots sion-rail</t>
   </si>
   <si>
     <t>Opstel</t>
@@ -160,12 +154,211 @@
 [x] 7120 -&gt; 7129
 [x] 7122</t>
   </si>
+  <si>
+    <t>2461 Rtd-Rsd</t>
+  </si>
+  <si>
+    <t>Rtd v 12:32
+Ddr a 12:47
+Ddr v 12:48
+Rsd a 13:11</t>
+  </si>
+  <si>
+    <t>Goederen</t>
+  </si>
+  <si>
+    <t>Internationaal</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>geen extra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rtd 12:27-12:37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 10a*: geen
+Tabel 10b:
+[x] 2136
+[x] 3438
+Tabel 11a*:
+[x] 1945
+Tabel 11b:
+[x] 2136
+Tabel 18a: geen
+Tabel 18b:
+[x] 4136
+Tabel 50a:
+[x] 545 &lt; 1734
+Tabel 50b:
+[x] 9834
+[n] 1734 &gt; 545
+[n] 4041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rtd-Ddr 12:32-12:47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 11a*:
+[x] 5445 &gt; 5438
+[x] 1945
+Tabel 11b:
+[x] 2136
+[x] 3438
+[x] 5436 &lt;
+[x] 1938
+[x] 2483</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ddr 12:42-12:53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 11a:
+[x] 5445
+[x] 1945
+Tabel 11b:
+[x] 2483
+[x] 5438 &lt; 5445
+Tabel 12a:
+[x] 1945
+Tabel 12b:
+[x] 2483
+Tabel 19a:
+[x] 7145 &lt; 7136
+Tabel 19b:
+[x] 7136 &gt; 7145
+Tabel 27a:
+[x] 1945
+Tabel 27b: geen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ddr-Rsd 12:48-13:11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 12a*:
+[x] 4643 &lt;
+[x] 1945
+Tabel 12b:
+[x] 4640
+[x] 2140
+[x] 5440
+Tabel 27a*:
+[x] 1945
+Tabel 27b:
+[x] 4640
+[x] 1540
+[x] 5440</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rsd 13:06-13:16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Tabel 12a: geen
+Tabel 12b: geen
+Tabel 62a:
+[x] 3639
+Tabel 62b: geen
+Tabel 511a: geen
+Tabel 511b: geen</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +378,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,16 +420,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -244,10 +452,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,128 +751,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
-    <col min="2" max="2" width="14.53125" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636535C-1C7E-46EB-8B60-66DA1EBCFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C516B-55A5-4E0C-8D13-16FDB31B85C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2093" windowWidth="21503" windowHeight="12975" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="2850" yWindow="2093" windowWidth="15247" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Naam</t>
   </si>
@@ -352,6 +352,9 @@
 Tabel 511a: geen
 Tabel 511b: geen</t>
     </r>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -780,6 +783,9 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">

--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C516B-55A5-4E0C-8D13-16FDB31B85C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F26B64-E782-4424-A9A2-E6E04DDF3510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2093" windowWidth="15247" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="-7515" yWindow="4118" windowWidth="15247" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Naam</t>
   </si>
@@ -355,6 +355,11 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Containers Bd-Kfhn (ACTS 2011 50071)
+Ketels Whv-Kfhn (DBSbg 2011 61331)
+Bont Zlw (DBSbg 2011 62015)</t>
   </si>
 </sst>
 </file>
@@ -756,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -851,9 +856,12 @@
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -868,11 +876,15 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">

--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F26B64-E782-4424-A9A2-E6E04DDF3510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433FEE6-008E-4E42-BBB7-009B786BB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7515" yWindow="4118" windowWidth="15247" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -360,6 +360,9 @@
     <t>Containers Bd-Kfhn (ACTS 2011 50071)
 Ketels Whv-Kfhn (DBSbg 2011 61331)
 Bont Zlw (DBSbg 2011 62015)</t>
+  </si>
+  <si>
+    <t>nvt</t>
   </si>
 </sst>
 </file>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -890,28 +893,38 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>

--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433FEE6-008E-4E42-BBB7-009B786BB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75767EC9-16F4-4685-A050-2AE0A21FFFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7515" yWindow="4118" windowWidth="15247" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,30 @@
     <author>Tom</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E46BBB8-0AC7-42E9-9C51-7DE9410B7726}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Speler rood sein inrijder Rsd</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F4111D6-9AB0-4662-90A1-B73A15D4FE18}">
       <text>
         <r>
@@ -69,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -764,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -802,7 +826,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -922,6 +946,9 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">

--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75767EC9-16F4-4685-A050-2AE0A21FFFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10AB7B-3BFF-4B21-BF06-2DDF290F8E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
+    <workbookView xWindow="0" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
   <sheets>
     <sheet name="Spotten" sheetId="1" r:id="rId1"/>
@@ -40,30 +40,6 @@
     <author>Tom</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E46BBB8-0AC7-42E9-9C51-7DE9410B7726}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tom:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Speler rood sein inrijder Rsd</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{1F4111D6-9AB0-4662-90A1-B73A15D4FE18}">
       <text>
         <r>
@@ -778,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,7 +765,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -826,7 +802,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/zwnl-9697.xlsx
+++ b/zwnl-9697.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10AB7B-3BFF-4B21-BF06-2DDF290F8E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D4395-98AF-40CC-9A8D-CB37BFA04C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3953" windowWidth="15248" windowHeight="11647" xr2:uid="{D33B17E7-9394-4FC9-A188-FF576B280660}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -431,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -447,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B9C10-3B26-4BBA-B6EF-00E5872C35E1}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -780,10 +783,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -930,6 +933,9 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
